--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2015_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2015_top_box_office.xlsx
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jurassic World</t>
+          <t>Star Wars: Episode VII - The Force Awakens</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$652,270,625</t>
+          <t>$936,662,225</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Star Wars: Episode VII - The Force Awakens</t>
+          <t>Jurassic World</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$651,967,269</t>
+          <t>$652,270,625</t>
         </is>
       </c>
     </row>
@@ -508,96 +508,96 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>American Sniper</t>
+          <t>Minions</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$348,797,073</t>
+          <t>$336,045,770</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Minions</t>
+          <t>The Hunger Games: Mockingjay - Part 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$336,045,770</t>
+          <t>$281,723,902</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Hunger Games: Mockingjay - Part 2</t>
+          <t>The Martian</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$269,569,121</t>
+          <t>$228,433,663</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The Martian</t>
+          <t>Cinderella</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$225,345,353</t>
+          <t>$201,151,353</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cinderella</t>
+          <t>Spectre</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$201,151,353</t>
+          <t>$200,074,609</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spectre</t>
+          <t>Mission: Impossible - Rogue Nation</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$197,102,585</t>
+          <t>$195,042,377</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mission: Impossible - Rogue Nation</t>
+          <t>Pitch Perfect 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$195,042,377</t>
+          <t>$184,296,230</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pitch Perfect 2</t>
+          <t>The Revenant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$183,785,415</t>
+          <t>$183,637,894</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$168,471,018</t>
+          <t>$169,700,110</t>
         </is>
       </c>
     </row>
@@ -700,24 +700,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The Divergent Series: Insurgent</t>
+          <t>Daddy's Home</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$130,179,072</t>
+          <t>$150,357,137</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kingsman: The Secret Service</t>
+          <t>The Divergent Series: Insurgent</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$128,261,724</t>
+          <t>$130,179,072</t>
         </is>
       </c>
     </row>
@@ -729,19 +729,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$128,235,584</t>
+          <t>$130,178,411</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spy</t>
+          <t>Kingsman: The Secret Service</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$110,825,712</t>
+          <t>$128,261,724</t>
         </is>
       </c>
     </row>
@@ -753,271 +753,271 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$110,716,470</t>
+          <t>$123,087,120</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Trainwreck</t>
+          <t>Spy</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$110,212,700</t>
+          <t>$110,825,712</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Creed</t>
+          <t>Trainwreck</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$99,385,165</t>
+          <t>$110,212,700</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tomorrowland</t>
+          <t>Creed</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$93,436,322</t>
+          <t>$109,767,581</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Get Hard</t>
+          <t>Tomorrowland</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$90,411,453</t>
+          <t>$93,436,322</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Terminator Genisys</t>
+          <t>Get Hard</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$89,760,956</t>
+          <t>$90,411,453</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Taken 3</t>
+          <t>Terminator Genisys</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$89,256,424</t>
+          <t>$89,760,956</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Maze Runner: The Scorch Trials</t>
+          <t>Taken 3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$81,630,702</t>
+          <t>$89,256,424</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ted 2</t>
+          <t>Sisters</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$81,476,385</t>
+          <t>$87,044,645</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Goosebumps</t>
+          <t>Alvin and the Chipmunks: The Road Chip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$79,132,868</t>
+          <t>$85,886,987</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pixels</t>
+          <t>Maze Runner: The Scorch Trials</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$78,747,585</t>
+          <t>$81,697,192</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Paddington</t>
+          <t>Ted 2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$76,271,832</t>
+          <t>$81,476,385</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The Intern</t>
+          <t>Goosebumps</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$75,574,886</t>
+          <t>$80,080,379</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>The Imitation Game</t>
+          <t>Pixels</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$71,189,164</t>
+          <t>$78,747,585</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Paul Blart: Mall Cop 2</t>
+          <t>Paddington</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$71,038,190</t>
+          <t>$76,271,832</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bridge of Spies</t>
+          <t>The Intern</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$70,447,776</t>
+          <t>$75,764,672</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>War Room</t>
+          <t>Bridge of Spies</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$67,790,117</t>
+          <t>$72,313,754</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Magic Mike XXL</t>
+          <t>Paul Blart: Mall Cop 2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$66,013,057</t>
+          <t>$71,038,190</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The Hobbit: The Battle of the Five Armies</t>
+          <t>The Big Short</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$65,570,462</t>
+          <t>$70,259,870</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The Visit</t>
+          <t>War Room</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$65,206,105</t>
+          <t>$67,790,117</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Daddy's Home</t>
+          <t>Magic Mike XXL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$64,684,278</t>
+          <t>$66,013,057</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The Wedding Ringer</t>
+          <t>The Visit</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$64,460,211</t>
+          <t>$65,206,105</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Into the Woods</t>
+          <t>The Wedding Ringer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$63,940,268</t>
+          <t>$64,460,211</t>
         </is>
       </c>
     </row>
@@ -1060,48 +1060,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fantastic Four</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$56,117,548</t>
+          <t>$56,451,232</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Alvin and the Chipmunks: The Road Chip</t>
+          <t>Fantastic Four</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$55,575,427</t>
+          <t>$56,117,548</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Focus</t>
+          <t>The Hateful Eight</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$53,862,963</t>
+          <t>$54,117,416</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Unbroken</t>
+          <t>Focus</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$53,109,285</t>
+          <t>$53,862,963</t>
         </is>
       </c>
     </row>
@@ -1132,216 +1132,216 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Selma</t>
+          <t>Poltergeist</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$50,872,921</t>
+          <t>$47,425,125</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sisters</t>
+          <t>Jupiter Ascending</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$49,123,380</t>
+          <t>$47,387,723</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Poltergeist</t>
+          <t>Sicario</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$47,425,125</t>
+          <t>$46,889,293</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jupiter Ascending</t>
+          <t>The Man from U.N.C.L.E.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$47,387,723</t>
+          <t>$45,445,109</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sicario</t>
+          <t>Spotlight</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$46,770,373</t>
+          <t>$45,055,776</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>The Man from U.N.C.L.E.</t>
+          <t>McFarland, USA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$45,445,109</t>
+          <t>$44,482,410</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>McFarland, USA</t>
+          <t>The Gift</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$44,482,410</t>
+          <t>$43,787,265</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Night at the Museum: Secret of the Tomb</t>
+          <t>Everest</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$44,392,039</t>
+          <t>$43,482,270</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The Gift</t>
+          <t>The Night Before</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$43,787,265</t>
+          <t>$43,047,372</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Everest</t>
+          <t>Krampus</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$43,482,270</t>
+          <t>$42,725,475</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>The Night Before</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$42,884,826</t>
+          <t>$42,656,255</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>The Age of Adaline</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$42,656,255</t>
+          <t>$42,629,776</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The Age of Adaline</t>
+          <t>Brooklyn</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$42,629,776</t>
+          <t>$38,322,743</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Krampus</t>
+          <t>The Longest Ride</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$41,465,710</t>
+          <t>$37,446,117</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>The Longest Ride</t>
+          <t>The Boy Next Door</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$37,446,117</t>
+          <t>$35,423,380</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The Boy Next Door</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$35,423,380</t>
+          <t>$35,088,320</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Hot Pursuit</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$35,057,457</t>
+          <t>$34,580,201</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hot Pursuit</t>
+          <t>Concussion</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$34,580,201</t>
+          <t>$34,542,474</t>
         </is>
       </c>
     </row>
@@ -1449,1399 +1449,1399 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$29,474,282</t>
+          <t>$29,504,281</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Annie</t>
+          <t>Point Break</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$28,959,342</t>
+          <t>$28,782,481</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>Sinister 2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$28,310,094</t>
+          <t>$27,740,955</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sinister 2</t>
+          <t>The Last Witch Hunter</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$27,740,955</t>
+          <t>$27,367,660</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The Last Witch Hunter</t>
+          <t>No Escape</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$27,367,660</t>
+          <t>$27,288,872</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>No Escape</t>
+          <t>Ricki and the Flash</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$27,288,872</t>
+          <t>$26,822,144</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ricki and the Flash</t>
+          <t>The Woman in Black 2: Angel of Death</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$26,822,144</t>
+          <t>$26,501,323</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>The Woman in Black 2: Angel of Death</t>
+          <t>Run All Night</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$26,501,323</t>
+          <t>$26,461,644</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Run All Night</t>
+          <t>Love the Coopers</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$26,461,644</t>
+          <t>$26,302,731</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Love the Coopers</t>
+          <t>The Lazarus Effect</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$26,054,993</t>
+          <t>$25,801,570</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Spotlight</t>
+          <t>Ex Machina</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$25,923,879</t>
+          <t>$25,442,958</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>The Lazarus Effect</t>
+          <t>In the Heart of the Sea</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$25,801,570</t>
+          <t>$25,020,758</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ex Machina</t>
+          <t>The Gallows</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$25,437,558</t>
+          <t>$22,764,410</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The Big Short</t>
+          <t>Hitman: Agent 47</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$23,995,178</t>
+          <t>$22,467,450</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>The Hunger Games: Mockingjay - Part 1</t>
+          <t>Project Almanac</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$23,852,971</t>
+          <t>$22,348,241</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>In the Heart of the Sea</t>
+          <t>Black or White</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$23,063,385</t>
+          <t>$21,571,189</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Gallows</t>
+          <t>Aloha</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$22,764,410</t>
+          <t>$21,067,116</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hitman: Agent 47</t>
+          <t>Secret in Their Eyes</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$22,467,450</t>
+          <t>$20,180,155</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Project Almanac</t>
+          <t>Shaun the Sheep Movie</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$22,348,241</t>
+          <t>$19,375,982</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Black or White</t>
+          <t>Still Alice</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$21,571,189</t>
+          <t>$18,754,371</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Aloha</t>
+          <t>Paranormal Activity: The Ghost Dimension</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$21,067,116</t>
+          <t>$18,300,124</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Secret in Their Eyes</t>
+          <t>Steve Jobs</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$20,070,622</t>
+          <t>$17,766,658</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Brooklyn</t>
+          <t>Mr. Holmes</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$19,563,995</t>
+          <t>$17,737,646</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Shaun the Sheep Movie</t>
+          <t>Dope</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$19,375,982</t>
+          <t>$17,506,470</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Still Alice</t>
+          <t>Seventh Son</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$18,763,541</t>
+          <t>$17,223,265</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Paranormal Activity: The Ghost Dimension</t>
+          <t>Monkey Kingdom</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$18,300,124</t>
+          <t>$16,432,322</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wild</t>
+          <t>The Transporter Refueled</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$18,137,709</t>
+          <t>$16,029,670</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Birdman or (The Unexpected Virtue of Ignorance)</t>
+          <t>Room</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$18,067,553</t>
+          <t>$14,677,654</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Big Hero 6</t>
+          <t>It Follows</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$17,951,174</t>
+          <t>$14,674,076</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Steve Jobs</t>
+          <t>American Ultra</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$17,766,658</t>
+          <t>$14,440,985</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Mr. Holmes</t>
+          <t>Woodlawn</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$17,737,646</t>
+          <t>$14,394,097</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Dope</t>
+          <t>Burnt</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$17,506,470</t>
+          <t>$13,651,946</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Concussion</t>
+          <t>Do You Believe?</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$17,420,369</t>
+          <t>$12,985,600</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Seventh Son</t>
+          <t>Carol</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$17,223,265</t>
+          <t>$12,711,491</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Monkey Kingdom</t>
+          <t>Love &amp; Mercy</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$16,432,322</t>
+          <t>$12,551,031</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>The Transporter Refueled</t>
+          <t>Strange Magic</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$16,029,670</t>
+          <t>$12,429,583</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Point Break</t>
+          <t>Hot Tub Time Machine 2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$15,584,535</t>
+          <t>$12,314,651</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>The Gambler</t>
+          <t>Self/less</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$14,800,136</t>
+          <t>$12,279,691</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>It Follows</t>
+          <t>Far from the Madding Crowd</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$14,674,076</t>
+          <t>$12,236,500</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>American Ultra</t>
+          <t>The 33</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$14,440,985</t>
+          <t>$12,227,722</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Woodlawn</t>
+          <t>The Danish Girl</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$14,374,957</t>
+          <t>$11,114,018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Burnt</t>
+          <t>The Gunman</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$13,594,751</t>
+          <t>$10,664,749</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>The Hateful Eight</t>
+          <t>Unfinished Business</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$13,339,210</t>
+          <t>$10,219,501</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Do You Believe?</t>
+          <t>The Walk</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$12,985,600</t>
+          <t>$10,137,502</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>The Theory of Everything</t>
+          <t>The Lady in the Van</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$12,659,737</t>
+          <t>$10,021,175</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Love &amp; Mercy</t>
+          <t>Huevos: Little Rooster's Egg-cellent Adventure</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$12,551,031</t>
+          <t>$9,080,818</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Strange Magic</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$12,429,583</t>
+          <t>$8,413,144</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Hot Tub Time Machine 2</t>
+          <t>Bajrangi Bhaijaan</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$12,314,651</t>
+          <t>$8,178,001</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Self/less</t>
+          <t>Dragon Ball Z: Resurrection "F"</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$12,279,691</t>
+          <t>$8,008,363</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Far from the Madding Crowd</t>
+          <t>Blackhat</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$12,236,500</t>
+          <t>$8,005,980</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>The 33</t>
+          <t>Trumbo</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$12,049,242</t>
+          <t>$7,857,741</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>The Gunman</t>
+          <t>Mortdecai</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$10,664,749</t>
+          <t>$7,696,134</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Unfinished Business</t>
+          <t>While We're Young</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$10,219,501</t>
+          <t>$7,587,485</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>The Walk</t>
+          <t>I'll See You in My Dreams</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$10,137,502</t>
+          <t>$7,449,681</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Penguins of Madagascar</t>
+          <t>The Green Inferno</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$9,822,689</t>
+          <t>$7,192,291</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Exodus: Gods and Kings</t>
+          <t>Our Brand Is Crisis</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$9,287,173</t>
+          <t>$7,002,261</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Huevos: Little Rooster's Egg-cellent Adventure</t>
+          <t>Grandma</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$9,080,818</t>
+          <t>$6,980,524</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Interstellar</t>
+          <t>Me and Earl and the Dying Girl</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$8,632,122</t>
+          <t>$6,758,416</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Baahubali: The Beginning</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$8,399,911</t>
+          <t>$6,738,000</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Big Eyes</t>
+          <t>Bajirao Mastani</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$8,154,353</t>
+          <t>$6,557,047</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Dragon Ball Z: Resurrection "F"</t>
+          <t>Little Boy</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$8,008,363</t>
+          <t>$6,485,961</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Blackhat</t>
+          <t>The Loft</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$8,005,980</t>
+          <t>$6,002,684</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Bajrangi Bhaijaan</t>
+          <t>Victor Frankenstein</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$7,914,436</t>
+          <t>$5,775,076</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Mortdecai</t>
+          <t>Danny Collins</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$7,696,134</t>
+          <t>$5,637,066</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>While We're Young</t>
+          <t>Dilwale</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$7,587,485</t>
+          <t>$4,871,263</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>90 Minutes in Heaven</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$7,460,167</t>
+          <t>$4,842,699</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>I'll See You in My Dreams</t>
+          <t>True Story</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$7,449,681</t>
+          <t>$4,719,695</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The Green Inferno</t>
+          <t>Suffragette</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$7,192,291</t>
+          <t>$4,702,420</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Our Brand Is Crisis</t>
+          <t>Prem Ratan Dhan Payo</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$7,002,261</t>
+          <t>$4,364,639</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Inherent Vice</t>
+          <t>45 Years</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$6,994,056</t>
+          <t>$4,247,285</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Grandma</t>
+          <t>The Water Diviner</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$6,923,276</t>
+          <t>$4,196,641</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Trumbo</t>
+          <t>Irrational Man</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$6,842,949</t>
+          <t>$4,030,360</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Me and Earl and the Dying Girl</t>
+          <t>Anomalisa</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$6,758,416</t>
+          <t>$3,759,286</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Little Boy</t>
+          <t>Scouts Guide to the Zombie Apocalypse</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$6,485,961</t>
+          <t>$3,703,046</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>The Loft</t>
+          <t>A la mala</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$6,002,684</t>
+          <t>$3,629,842</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Victor Frankenstein</t>
+          <t>Spare Parts</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$5,775,076</t>
+          <t>$3,618,912</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A Most Violent Year</t>
+          <t>We Are Your Friends</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$5,652,055</t>
+          <t>$3,591,417</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Danny Collins</t>
+          <t>What We Do in the Shadows</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$5,637,066</t>
+          <t>$3,469,224</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Foxcatcher</t>
+          <t>Learning to Drive</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$5,319,163</t>
+          <t>$3,447,633</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Bajirao Mastani</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$5,070,014</t>
+          <t>$3,184,472</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Wild Tales</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$4,860,753</t>
+          <t>$3,106,530</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>90 Minutes in Heaven</t>
+          <t>Dil Dhadakne Do</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$4,842,699</t>
+          <t>$3,066,100</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>True Story</t>
+          <t>Ladrones</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$4,719,695</t>
+          <t>$3,063,505</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Suffragette</t>
+          <t>Tanu Weds Manu Returns</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$4,657,235</t>
+          <t>$3,043,479</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Top Five</t>
+          <t>Rock the Kasbah</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$4,609,863</t>
+          <t>$3,020,664</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Baahubali: The Beginning</t>
+          <t>The End of the Tour</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$4,518,000</t>
+          <t>$3,002,884</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>The Danish Girl</t>
+          <t>Youth</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$4,506,440</t>
+          <t>$2,703,296</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hubble</t>
+          <t>He Named Me Malala</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$4,449,681</t>
+          <t>$2,668,936</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Dilwale</t>
+          <t>Chi-Raq</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$4,394,522</t>
+          <t>$2,653,032</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Prem Ratan Dhan Payo</t>
+          <t>Captive</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$4,364,639</t>
+          <t>$2,583,301</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>The Water Diviner</t>
+          <t>Truth</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$4,196,641</t>
+          <t>$2,541,854</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Irrational Man</t>
+          <t>Mistress America</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$4,030,360</t>
+          <t>$2,500,431</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Carol</t>
+          <t>Pawn Sacrifice</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$3,801,134</t>
+          <t>$2,436,633</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Scouts Guide to the Zombie Apocalypse</t>
+          <t>The Oscar Nominated Short Films 2015: Live Action</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$3,703,046</t>
+          <t>$2,412,593</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A la mala</t>
+          <t>Meru</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$3,629,842</t>
+          <t>$2,334,228</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Spare Parts</t>
+          <t>WARx2</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$3,618,912</t>
+          <t>$2,310,625</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>We Are Your Friends</t>
+          <t>My All-American</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$3,591,417</t>
+          <t>$2,246,000</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>What We Do in the Shadows</t>
+          <t>Jem and the Holograms</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$3,469,224</t>
+          <t>$2,184,640</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Learning to Drive</t>
+          <t>Tamasha</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$3,447,633</t>
+          <t>$2,065,487</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mr. Turner</t>
+          <t>Cake</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$3,296,974</t>
+          <t>$1,951,776</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Old Fashioned</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$3,184,472</t>
+          <t>$1,914,090</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Dil Dhadakne Do</t>
+          <t>Assassination</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$3,066,100</t>
+          <t>$1,904,682</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Ladrones</t>
+          <t>Game of Thrones Season 4 Finale</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$3,063,505</t>
+          <t>$1,896,092</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Tanu Weds Manu Returns</t>
+          <t>Legend</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$3,043,479</t>
+          <t>$1,872,994</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Rock the Kasbah</t>
+          <t>Clouds of Sils Maria</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$3,020,664</t>
+          <t>$1,851,517</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>The End of the Tour</t>
+          <t>Testament of Youth</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$3,002,884</t>
+          <t>$1,822,250</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Wild Tales</t>
+          <t>Piku</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$2,962,621</t>
+          <t>$1,801,807</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Horrible Bosses 2</t>
+          <t>The Vatican Tapes</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$2,699,932</t>
+          <t>$1,784,763</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>He Named Me Malala</t>
+          <t>Son of Saul</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$2,668,936</t>
+          <t>$1,777,043</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Captive</t>
+          <t>Meet the Patels</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$2,583,301</t>
+          <t>$1,700,681</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Chi-Raq</t>
+          <t>Back To The Future DayTriple Bill</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$2,570,882</t>
+          <t>$1,650,000</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>The Interview</t>
+          <t>The Letters</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$2,552,397</t>
+          <t>$1,647,416</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Truth</t>
+          <t>The Diary of a Teenage Girl</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$2,515,179</t>
+          <t>$1,477,002</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Mistress America</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$2,500,431</t>
+          <t>$1,449,232</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Pawn Sacrifice</t>
+          <t>Infinitely Polar Bear</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$2,436,633</t>
+          <t>$1,430,655</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>The Oscar Nominated Short Films 2015: Live Action</t>
+          <t>Mr. Six</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$2,412,593</t>
+          <t>$1,415,450</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Meru</t>
+          <t>99 Homes</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$2,334,228</t>
+          <t>$1,411,927</t>
         </is>
       </c>
     </row>
